--- a/Bin_data/Virginia/Virginia39.xlsx
+++ b/Bin_data/Virginia/Virginia39.xlsx
@@ -374,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="19" spans="1:56">
       <c r="A19" s="1">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AO19">
-        <v>0.05364706788</v>
+        <v>0</v>
       </c>
       <c r="AP19">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0.02363392104</v>
+        <v>0</v>
       </c>
       <c r="BB19">
         <v>0</v>
@@ -3612,10 +3612,10 @@
     </row>
     <row r="20" spans="1:56">
       <c r="A20" s="1">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="B20">
-        <v>0.06022948404</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3696,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>2.66144508936</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>0.4777908186000001</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <v>0</v>
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0.23057475576</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>0.05364706788</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -3759,22 +3759,22 @@
         <v>0</v>
       </c>
       <c r="AX20">
-        <v>0.59300478684</v>
+        <v>0</v>
       </c>
       <c r="AY20">
-        <v>0.7702330836000001</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
-        <v>1.23275403324</v>
+        <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>0.02363392104</v>
       </c>
       <c r="BB20">
         <v>0</v>
       </c>
       <c r="BC20">
-        <v>0.63421348464</v>
+        <v>0</v>
       </c>
       <c r="BD20">
         <v>0</v>
@@ -3782,13 +3782,13 @@
     </row>
     <row r="21" spans="1:56">
       <c r="A21" s="1">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>0.06022948404</v>
       </c>
       <c r="C21">
-        <v>0.07140417936</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.05621762232000001</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>1.7538589182</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1.43805922152</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.66144508936</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>0.4777908186000001</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -3896,13 +3896,13 @@
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>0.51904692564</v>
+        <v>0.23057475576</v>
       </c>
       <c r="AN21">
-        <v>0.30257074848</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>0.22932889404</v>
+        <v>0</v>
       </c>
       <c r="AP21">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="AR21">
-        <v>0.6458262037200001</v>
+        <v>0</v>
       </c>
       <c r="AS21">
         <v>0</v>
@@ -3920,31 +3920,31 @@
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>1.08497755128</v>
+        <v>0</v>
       </c>
       <c r="AV21">
-        <v>1.361433498</v>
+        <v>0</v>
       </c>
       <c r="AW21">
-        <v>2.15556753228</v>
+        <v>0</v>
       </c>
       <c r="AX21">
-        <v>1.58818143744</v>
+        <v>0.59300478684</v>
       </c>
       <c r="AY21">
-        <v>3.1797706422</v>
+        <v>0.7702330836000001</v>
       </c>
       <c r="AZ21">
-        <v>3.93124991388</v>
+        <v>1.23275403324</v>
       </c>
       <c r="BA21">
-        <v>3.42209757876</v>
+        <v>0</v>
       </c>
       <c r="BB21">
-        <v>1.45493597052</v>
+        <v>0</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>0.63421348464</v>
       </c>
       <c r="BD21">
         <v>0</v>
@@ -3952,13 +3952,13 @@
     </row>
     <row r="22" spans="1:56">
       <c r="A22" s="1">
-        <v>0.6599999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.07140417936</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.0345478932</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.05621762232000001</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4003,28 +4003,28 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>1.4547450612</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2.44005018972</v>
+        <v>1.7538589182</v>
       </c>
       <c r="T22">
-        <v>2.64991081404</v>
+        <v>1.43805922152</v>
       </c>
       <c r="U22">
-        <v>3.45496208436</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>2.36827071948</v>
+        <v>0</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>3.154029693</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.905383716</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -4063,16 +4063,16 @@
         <v>0</v>
       </c>
       <c r="AL22">
-        <v>0.05580283296000001</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>0.51904692564</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.30257074848</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>0.22932889404</v>
       </c>
       <c r="AP22">
         <v>0</v>
@@ -4081,40 +4081,40 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>0.6458262037200001</v>
       </c>
       <c r="AS22">
-        <v>0.15678003324</v>
+        <v>0</v>
       </c>
       <c r="AT22">
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>0</v>
+        <v>1.08497755128</v>
       </c>
       <c r="AV22">
-        <v>0</v>
+        <v>1.361433498</v>
       </c>
       <c r="AW22">
-        <v>0</v>
+        <v>2.15556753228</v>
       </c>
       <c r="AX22">
-        <v>0</v>
+        <v>1.58818143744</v>
       </c>
       <c r="AY22">
-        <v>0</v>
+        <v>3.1797706422</v>
       </c>
       <c r="AZ22">
-        <v>0</v>
+        <v>3.93124991388</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>3.42209757876</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.45493597052</v>
       </c>
       <c r="BC22">
-        <v>4.55297601492</v>
+        <v>0</v>
       </c>
       <c r="BD22">
         <v>0</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="23" spans="1:56">
       <c r="A23" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.0345478932</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5927741024400001</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.41607698832</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -4173,28 +4173,28 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.4547450612</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2.44005018972</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>2.64991081404</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>3.45496208436</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.36827071948</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>3.154029693</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.905383716</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>0.05580283296000001</v>
       </c>
       <c r="AM23">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>0.15678003324</v>
       </c>
       <c r="AT23">
         <v>0</v>
@@ -4269,22 +4269,22 @@
         <v>0</v>
       </c>
       <c r="AX23">
-        <v>0.25798642428</v>
+        <v>0</v>
       </c>
       <c r="AY23">
-        <v>3.40410497004</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0.39477961812</v>
+        <v>0</v>
       </c>
       <c r="BB23">
-        <v>2.632243155</v>
+        <v>0</v>
       </c>
       <c r="BC23">
-        <v>6.27323727156</v>
+        <v>4.55297601492</v>
       </c>
       <c r="BD23">
         <v>0</v>
@@ -4292,10 +4292,10 @@
     </row>
     <row r="24" spans="1:56">
       <c r="A24" s="1">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B24">
-        <v>0.11934117216</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.04588561656</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -4325,34 +4325,34 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5927741024400001</v>
       </c>
       <c r="M24">
-        <v>1.03639408896</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9882497567999999</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9173482149600001</v>
+        <v>0.41607698832</v>
       </c>
       <c r="P24">
-        <v>0.83409194688</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.6495785040000001</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.8226432516000001</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>0.41101177848</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>0.32715689268</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.24357855156</v>
+        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -4439,33 +4439,33 @@
         <v>0</v>
       </c>
       <c r="AX24">
-        <v>0</v>
+        <v>0.25798642428</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>3.40410497004</v>
       </c>
       <c r="AZ24">
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>0.39477961812</v>
       </c>
       <c r="BB24">
-        <v>0</v>
+        <v>2.632243155</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>6.27323727156</v>
       </c>
       <c r="BD24">
-        <v>0.09109682700000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:56">
       <c r="A25" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>0.11934117216</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.04588561656</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4498,31 +4498,31 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.03639408896</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.9882497567999999</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9173482149600001</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.83409194688</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.6495785040000001</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.8226432516000001</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>0.41101177848</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>0.32715689268</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>0.24357855156</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="AZ25">
-        <v>0.4398336644399999</v>
+        <v>0</v>
       </c>
       <c r="BA25">
         <v>0</v>
@@ -4627,12 +4627,12 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>0.09109682700000001</v>
       </c>
     </row>
     <row r="26" spans="1:56">
       <c r="A26" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4668,7 +4668,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0.27196838832</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1.0190643798</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1.64668615452</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
@@ -4689,25 +4689,25 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0.23581748748</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>1.80446908404</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1.56689994408</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1.3268457744</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.84663354548</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>4.44425893812</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.16165394652</v>
+        <v>0</v>
       </c>
       <c r="AH26">
         <v>0</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="AZ26">
-        <v>0.8455189014000001</v>
+        <v>0.4398336644399999</v>
       </c>
       <c r="BA26">
-        <v>2.17166227776</v>
+        <v>0</v>
       </c>
       <c r="BB26">
-        <v>4.9381810134</v>
+        <v>0</v>
       </c>
       <c r="BC26">
-        <v>2.59425031944</v>
+        <v>0</v>
       </c>
       <c r="BD26">
         <v>0</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="27" spans="1:56">
       <c r="A27" s="1">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.11618870664</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -4838,67 +4838,67 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.27196838832</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>1.26665728248</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.0190643798</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1.64668615452</v>
       </c>
       <c r="R27">
-        <v>1.41718587912</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1.7376202854</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1.84285557672</v>
+        <v>0.23581748748</v>
       </c>
       <c r="U27">
-        <v>1.60564275288</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.80446908404</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1.56689994408</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1.3268457744</v>
       </c>
       <c r="Y27">
-        <v>2.01477387264</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.84663354548</v>
       </c>
       <c r="AA27">
-        <v>3.00023915256</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>2.6992091214</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0.26574660324</v>
+        <v>4.44425893812</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>2.3714265042</v>
+        <v>0</v>
       </c>
       <c r="AG27">
-        <v>0.50242995936</v>
+        <v>0.16165394652</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="AL27">
-        <v>1.30857645504</v>
+        <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -4955,24 +4955,24 @@
         <v>0</v>
       </c>
       <c r="AZ27">
-        <v>1.26543830628</v>
+        <v>0.8455189014000001</v>
       </c>
       <c r="BA27">
-        <v>0.67274214972</v>
+        <v>2.17166227776</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>4.9381810134</v>
       </c>
       <c r="BC27">
-        <v>1.03372661388</v>
+        <v>2.59425031944</v>
       </c>
       <c r="BD27">
-        <v>0.49952333592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:56">
       <c r="A28" s="1">
-        <v>0.84</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4987,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.05625501864</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.11618870664</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -5005,16 +5005,16 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.11031466308</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>0.1832831814</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>1.26665728248</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -5023,19 +5023,19 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1.41718587912</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1.7376202854</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.84285557672</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1.60564275288</v>
       </c>
       <c r="V28">
-        <v>0.38191749684</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
@@ -5044,31 +5044,31 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.6938515978800001</v>
+        <v>2.01477387264</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>3.00023915256</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>2.6992091214</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>0.46544604996</v>
+        <v>0.26574660324</v>
       </c>
       <c r="AE28">
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>2.3714265042</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>0.50242995936</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>1.30857645504</v>
       </c>
       <c r="AM28">
         <v>0</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>0.20937497004</v>
+        <v>0</v>
       </c>
       <c r="AS28">
         <v>0</v>
@@ -5119,30 +5119,30 @@
         <v>0</v>
       </c>
       <c r="AX28">
-        <v>0.03838826292</v>
+        <v>0</v>
       </c>
       <c r="AY28">
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>0</v>
+        <v>1.26543830628</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>0.67274214972</v>
       </c>
       <c r="BB28">
         <v>0</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>1.03372661388</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>0.49952333592</v>
       </c>
     </row>
     <row r="29" spans="1:56">
       <c r="A29" s="1">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.05625501864</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5175,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>0.11031466308</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.1832831814</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -5205,16 +5205,16 @@
         <v>0</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>0.38191749684</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0.54564173904</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>0.6938515978800001</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>0.46544604996</v>
       </c>
       <c r="AE29">
         <v>0</v>
@@ -5241,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>0.42392921976</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>0.20937497004</v>
       </c>
       <c r="AS29">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AX29">
-        <v>0</v>
+        <v>0.03838826292</v>
       </c>
       <c r="AY29">
         <v>0</v>
@@ -5301,18 +5301,18 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>0.04780986744</v>
+        <v>0</v>
       </c>
       <c r="BC29">
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>0.0747436818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:56">
       <c r="A30" s="1">
-        <v>0.8999999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5324,7 +5324,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0.11300443212</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -5333,10 +5333,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.09413787804</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.61007570904</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5348,10 +5348,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0.4437820188</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>0.26151014232</v>
+        <v>0</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0.6591550045200001</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.54564173904</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -5390,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0.58269076008</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <v>0</v>
@@ -5405,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.34291224996</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>0.42392921976</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0.05810536199999999</v>
+        <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>0</v>
       </c>
       <c r="AQ30">
-        <v>0.074672319</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>0.06651682332</v>
+        <v>0</v>
       </c>
       <c r="AS30">
         <v>0</v>
@@ -5471,18 +5471,18 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>0.51491955576</v>
+        <v>0.04780986744</v>
       </c>
       <c r="BC30">
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>0.0747436818</v>
       </c>
     </row>
     <row r="31" spans="1:56">
       <c r="A31" s="1">
-        <v>0.9299999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5494,7 +5494,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.11300443212</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5503,10 +5503,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>0.09413787804</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>0.61007570904</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5515,34 +5515,34 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0.24425561304</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.4437820188</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.26151014232</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0.38737907448</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.6591550045200001</v>
       </c>
       <c r="R31">
-        <v>0.28486386756</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.365800734</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.466336536</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.43325650368</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -5557,34 +5557,34 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0.26867435892</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.58269076008</v>
       </c>
       <c r="AB31">
-        <v>0.52605215256</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.54854935824</v>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.37068781344</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.08058425676</v>
+        <v>0.34291224996</v>
       </c>
       <c r="AG31">
-        <v>0.5003200545599999</v>
+        <v>0</v>
       </c>
       <c r="AH31">
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.33107592744</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>0.05810536199999999</v>
       </c>
       <c r="AM31">
         <v>0</v>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="AQ31">
-        <v>0.07817772612000001</v>
+        <v>0.074672319</v>
       </c>
       <c r="AR31">
-        <v>0.08626606332</v>
+        <v>0.06651682332</v>
       </c>
       <c r="AS31">
         <v>0</v>
@@ -5638,21 +5638,21 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>0.72127599</v>
+        <v>0</v>
       </c>
       <c r="BB31">
-        <v>0.16822823064</v>
+        <v>0.51491955576</v>
       </c>
       <c r="BC31">
-        <v>1.713867537</v>
+        <v>0</v>
       </c>
       <c r="BD31">
-        <v>0.51815594172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:56">
       <c r="A32" s="1">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>0.24425561304</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -5697,22 +5697,22 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>0.38737907448</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>0.28486386756</v>
       </c>
       <c r="S32">
-        <v>0.14297846772</v>
+        <v>0.365800734</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>0.466336536</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>0.43325650368</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -5721,40 +5721,40 @@
         <v>0</v>
       </c>
       <c r="X32">
-        <v>0.41800057536</v>
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.26867435892</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>0.52605215256</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>0.54854935824</v>
       </c>
       <c r="AD32">
         <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>0.37068781344</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>0.08058425676</v>
       </c>
       <c r="AG32">
-        <v>0</v>
+        <v>0.5003200545599999</v>
       </c>
       <c r="AH32">
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>0.33107592744</v>
       </c>
       <c r="AJ32">
         <v>0</v>
@@ -5778,10 +5778,10 @@
         <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.07817772612000001</v>
       </c>
       <c r="AR32">
-        <v>0</v>
+        <v>0.08626606332</v>
       </c>
       <c r="AS32">
         <v>0</v>
@@ -5808,21 +5808,21 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>0</v>
+        <v>0.72127599</v>
       </c>
       <c r="BB32">
-        <v>0.0162112494</v>
+        <v>0.16822823064</v>
       </c>
       <c r="BC32">
-        <v>0.10497379368</v>
+        <v>1.713867537</v>
       </c>
       <c r="BD32">
-        <v>0.11744010036</v>
+        <v>0.51815594172</v>
       </c>
     </row>
     <row r="33" spans="1:56">
       <c r="A33" s="1">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5834,55 +5834,55 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0.260965185</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.57492587892</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0.6110842479599999</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>0.6496914674400001</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.7074698882399999</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>0.23037095688</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>0.208678104</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>0.2788338216</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>0.28931939568</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>0.2957894016</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>0.24101386104</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>0.24574366572</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>0.21008527884</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>0.11001693084</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>0.14297846772</v>
       </c>
       <c r="T33">
-        <v>0.04983518796</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>0.0761277882</v>
+        <v>0</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -5891,10 +5891,10 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0.08601535308000001</v>
+        <v>0.41800057536</v>
       </c>
       <c r="Y33">
-        <v>0.07229427816</v>
+        <v>0</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -5903,16 +5903,16 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.0502593264</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.0808050942</v>
+        <v>0</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>0.06223793196000001</v>
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -5954,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.08818400772</v>
+        <v>0</v>
       </c>
       <c r="AT33">
-        <v>0.04563557016</v>
+        <v>0</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -5966,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="AW33">
-        <v>0.06473502144</v>
+        <v>0</v>
       </c>
       <c r="AX33">
-        <v>0.159075426</v>
+        <v>0</v>
       </c>
       <c r="AY33">
-        <v>0.08673440244</v>
+        <v>0</v>
       </c>
       <c r="AZ33">
         <v>0</v>
@@ -5981,182 +5981,352 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>0.19853623308</v>
+        <v>0.0162112494</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>0.10497379368</v>
       </c>
       <c r="BD33">
-        <v>0</v>
+        <v>0.11744010036</v>
       </c>
     </row>
     <row r="34" spans="1:56">
       <c r="A34" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0.260965185</v>
+      </c>
+      <c r="F34">
+        <v>0.57492587892</v>
+      </c>
+      <c r="G34">
+        <v>0.6110842479599999</v>
+      </c>
+      <c r="H34">
+        <v>0.6496914674400001</v>
+      </c>
+      <c r="I34">
+        <v>0.7074698882399999</v>
+      </c>
+      <c r="J34">
+        <v>0.23037095688</v>
+      </c>
+      <c r="K34">
+        <v>0.208678104</v>
+      </c>
+      <c r="L34">
+        <v>0.2788338216</v>
+      </c>
+      <c r="M34">
+        <v>0.28931939568</v>
+      </c>
+      <c r="N34">
+        <v>0.2957894016</v>
+      </c>
+      <c r="O34">
+        <v>0.24101386104</v>
+      </c>
+      <c r="P34">
+        <v>0.24574366572</v>
+      </c>
+      <c r="Q34">
+        <v>0.21008527884</v>
+      </c>
+      <c r="R34">
+        <v>0.11001693084</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0.04983518796</v>
+      </c>
+      <c r="U34">
+        <v>0.0761277882</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0.08601535308000001</v>
+      </c>
+      <c r="Y34">
+        <v>0.07229427816</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0.0502593264</v>
+      </c>
+      <c r="AC34">
+        <v>0.0808050942</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.06223793196000001</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0.08818400772</v>
+      </c>
+      <c r="AT34">
+        <v>0.04563557016</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0.06473502144</v>
+      </c>
+      <c r="AX34">
+        <v>0.159075426</v>
+      </c>
+      <c r="AY34">
+        <v>0.08673440244</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0.19853623308</v>
+      </c>
+      <c r="BC34">
+        <v>0</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
         <v>1.02</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>13.66998396804</v>
       </c>
-      <c r="G34">
+      <c r="G35">
         <v>13.00095495204</v>
       </c>
-      <c r="H34">
+      <c r="H35">
         <v>11.80049850504</v>
       </c>
-      <c r="I34">
+      <c r="I35">
         <v>9.94393330464</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>9.002737965360001</v>
       </c>
-      <c r="K34">
+      <c r="K35">
         <v>8.131195595519999</v>
       </c>
-      <c r="L34">
+      <c r="L35">
         <v>7.39222760568</v>
       </c>
-      <c r="M34">
+      <c r="M35">
         <v>5.34211813836</v>
       </c>
-      <c r="N34">
+      <c r="N35">
         <v>4.475603748000001</v>
       </c>
-      <c r="O34">
+      <c r="O35">
         <v>5.13795630384</v>
       </c>
-      <c r="P34">
+      <c r="P35">
         <v>4.38029109444</v>
       </c>
-      <c r="Q34">
+      <c r="Q35">
         <v>2.57554087416</v>
       </c>
-      <c r="R34">
+      <c r="R35">
         <v>2.63022773676</v>
       </c>
-      <c r="S34">
+      <c r="S35">
         <v>1.71834718464</v>
       </c>
-      <c r="T34">
+      <c r="T35">
         <v>1.3367029686</v>
       </c>
-      <c r="U34">
+      <c r="U35">
         <v>1.0253263272</v>
       </c>
-      <c r="V34">
+      <c r="V35">
         <v>0.70618375356</v>
       </c>
-      <c r="W34">
+      <c r="W35">
         <v>0.56329689576</v>
       </c>
-      <c r="X34">
+      <c r="X35">
         <v>0.25381706652</v>
       </c>
-      <c r="Y34">
+      <c r="Y35">
         <v>0.24570621408</v>
       </c>
-      <c r="Z34">
+      <c r="Z35">
         <v>0.27594407076</v>
       </c>
-      <c r="AA34">
+      <c r="AA35">
         <v>0.3017418336</v>
       </c>
-      <c r="AB34">
+      <c r="AB35">
         <v>0.21426675168</v>
       </c>
-      <c r="AC34">
+      <c r="AC35">
         <v>0.23204870184</v>
       </c>
-      <c r="AD34">
+      <c r="AD35">
         <v>0.26916737076</v>
       </c>
-      <c r="AE34">
+      <c r="AE35">
         <v>0.24744564084</v>
       </c>
-      <c r="AF34">
+      <c r="AF35">
         <v>0.3519560742</v>
       </c>
-      <c r="AG34">
+      <c r="AG35">
         <v>0.2584248906</v>
       </c>
-      <c r="AH34">
+      <c r="AH35">
         <v>0.29793742188</v>
       </c>
-      <c r="AI34">
+      <c r="AI35">
         <v>0.23559869688</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ35">
         <v>0.27153152628</v>
       </c>
-      <c r="AK34">
+      <c r="AK35">
         <v>0.24365262504</v>
       </c>
-      <c r="AL34">
+      <c r="AL35">
         <v>0.21248760516</v>
       </c>
-      <c r="AM34">
+      <c r="AM35">
         <v>0.24761746476</v>
       </c>
-      <c r="AN34">
+      <c r="AN35">
         <v>0.17859929232</v>
       </c>
-      <c r="AO34">
+      <c r="AO35">
         <v>0.25968790152</v>
       </c>
-      <c r="AP34">
+      <c r="AP35">
         <v>0.21748460544</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ35">
         <v>0.1795501878</v>
       </c>
-      <c r="AR34">
+      <c r="AR35">
         <v>0.197975067</v>
       </c>
-      <c r="AS34">
+      <c r="AS35">
         <v>0.14514634788</v>
       </c>
-      <c r="AT34">
+      <c r="AT35">
         <v>0.1559542716</v>
       </c>
-      <c r="AU34">
+      <c r="AU35">
         <v>0.17060477784</v>
       </c>
-      <c r="AV34">
+      <c r="AV35">
         <v>0.18171259128</v>
       </c>
-      <c r="AW34">
+      <c r="AW35">
         <v>0.18934896408</v>
       </c>
-      <c r="AX34">
+      <c r="AX35">
         <v>0.34755724908</v>
       </c>
-      <c r="AY34">
+      <c r="AY35">
         <v>0.33924779784</v>
       </c>
-      <c r="AZ34">
+      <c r="AZ35">
         <v>0.47142752496</v>
       </c>
-      <c r="BA34">
+      <c r="BA35">
         <v>0.4989991789200001</v>
       </c>
-      <c r="BB34">
+      <c r="BB35">
         <v>0.41622994812</v>
       </c>
-      <c r="BC34">
+      <c r="BC35">
         <v>0.5414827814400001</v>
       </c>
-      <c r="BD34">
+      <c r="BD35">
         <v>0.43188827412</v>
       </c>
     </row>

--- a/Bin_data/Virginia/Virginia39.xlsx
+++ b/Bin_data/Virginia/Virginia39.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5984,6 +5984,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:56">
+      <c r="A35" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>13.66998396804</v>
+      </c>
+      <c r="G35">
+        <v>13.00095495204</v>
+      </c>
+      <c r="H35">
+        <v>11.80049850504</v>
+      </c>
+      <c r="I35">
+        <v>9.94393330464</v>
+      </c>
+      <c r="J35">
+        <v>8.616308956560001</v>
+      </c>
+      <c r="K35">
+        <v>7.82900744016</v>
+      </c>
+      <c r="L35">
+        <v>7.09161855972</v>
+      </c>
+      <c r="M35">
+        <v>5.02995479124</v>
+      </c>
+      <c r="N35">
+        <v>4.202769546360001</v>
+      </c>
+      <c r="O35">
+        <v>4.89841965276</v>
+      </c>
+      <c r="P35">
+        <v>4.15351472052</v>
+      </c>
+      <c r="Q35">
+        <v>2.33289435396</v>
+      </c>
+      <c r="R35">
+        <v>2.31588184968</v>
+      </c>
+      <c r="S35">
+        <v>1.36343409048</v>
+      </c>
+      <c r="T35">
+        <v>1.12151292612</v>
+      </c>
+      <c r="U35">
+        <v>1.0253263272</v>
+      </c>
+      <c r="V35">
+        <v>0.70618375356</v>
+      </c>
+      <c r="W35">
+        <v>0.56329689576</v>
+      </c>
+      <c r="X35">
+        <v>0.25381706652</v>
+      </c>
+      <c r="Y35">
+        <v>0.24570621408</v>
+      </c>
+      <c r="Z35">
+        <v>0.27594407076</v>
+      </c>
+      <c r="AA35">
+        <v>0.3017418336</v>
+      </c>
+      <c r="AB35">
+        <v>0.21426675168</v>
+      </c>
+      <c r="AC35">
+        <v>0.23204870184</v>
+      </c>
+      <c r="AD35">
+        <v>0.26916737076</v>
+      </c>
+      <c r="AE35">
+        <v>0.24744564084</v>
+      </c>
+      <c r="AF35">
+        <v>0.25025860752</v>
+      </c>
+      <c r="AG35">
+        <v>0.19905469212</v>
+      </c>
+      <c r="AH35">
+        <v>0.22993863108</v>
+      </c>
+      <c r="AI35">
+        <v>0.18701600904</v>
+      </c>
+      <c r="AJ35">
+        <v>0.2040663522</v>
+      </c>
+      <c r="AK35">
+        <v>0.17689853424</v>
+      </c>
+      <c r="AL35">
+        <v>0.1595990298</v>
+      </c>
+      <c r="AM35">
+        <v>0.17898747276</v>
+      </c>
+      <c r="AN35">
+        <v>0.13363862616</v>
+      </c>
+      <c r="AO35">
+        <v>0.18595010328</v>
+      </c>
+      <c r="AP35">
+        <v>0.1706541786</v>
+      </c>
+      <c r="AQ35">
+        <v>0.1795501878</v>
+      </c>
+      <c r="AR35">
+        <v>0.14889051612</v>
+      </c>
+      <c r="AS35">
+        <v>0.14514634788</v>
+      </c>
+      <c r="AT35">
+        <v>0.1559542716</v>
+      </c>
+      <c r="AU35">
+        <v>0.17060477784</v>
+      </c>
+      <c r="AV35">
+        <v>0.1453057248</v>
+      </c>
+      <c r="AW35">
+        <v>0.18934896408</v>
+      </c>
+      <c r="AX35">
+        <v>0.34755724908</v>
+      </c>
+      <c r="AY35">
+        <v>0.33924779784</v>
+      </c>
+      <c r="AZ35">
+        <v>0.47142752496</v>
+      </c>
+      <c r="BA35">
+        <v>0.4989991789200001</v>
+      </c>
+      <c r="BB35">
+        <v>0.41622994812</v>
+      </c>
+      <c r="BC35">
+        <v>0.5414827814400001</v>
+      </c>
+      <c r="BD35">
+        <v>0.43188827412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
